--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_165.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_165.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.475</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -573,133 +584,136 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0976890756302521</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.86, 22.46)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -708,495 +722,460 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:35.220000', '0:00:40')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:08.291354', '0:00:12.447726'), ('0:00:09.162102', '0:00:14.073123')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.58, 30.14)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.06, 59.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.42, 33.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
